--- a/medicine/Psychotrope/Antoine_Pétrus/Antoine_Pétrus.xlsx
+++ b/medicine/Psychotrope/Antoine_Pétrus/Antoine_Pétrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antoine_P%C3%A9trus</t>
+          <t>Antoine_Pétrus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antoine Pétrus, né le 4 juillet 1983, est un chef sommelier français. Il est Meilleur Ouvrier de France sommellerie, Meilleur ouvrier de France Maître d'hôtel, et directeur général du groupe Taillevent.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Antoine_P%C3%A9trus</t>
+          <t>Antoine_Pétrus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antoine Pétrus suit les cours du lycée hôtelier de Blois[1]. Il est diplômé d'un BEP cuisine passé en candidat libre, d'un Bac Technologique et d'un BTS Cuisine et Art de la Table avec mention « Major de promotion Inter Académies ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antoine Pétrus suit les cours du lycée hôtelier de Blois. Il est diplômé d'un BEP cuisine passé en candidat libre, d'un Bac Technologique et d'un BTS Cuisine et Art de la Table avec mention « Major de promotion Inter Académies ».
 En 2002, son intérêt pour la sommellerie est renforcé par la rencontre avec Philippe Faure-Brac (Meilleur sommelier du monde 1992), Olivier Poussier (Meilleur sommelier du monde 2000) et David Biraud (Vice Meilleur Sommelier du Monde 2016) au Salon des Vins à Angers. S'ensuivent d'autres rencontres dans les vignobles de l'hexagone et à travers le monde, avec des vignerons comme Didier Dagueneau, Henri Bonneau, Nady Foucault, Emmanuel Reynaud ou encore Anselme Selosse du champagne Jacques Selosse. Il passe au « Château de Trédion » dans le Morbihan puis à la « Brasserie Le Sud » de Paul Bocuse, à Collonges-au-Mont-d'Or, où il est assistant chef sommelier auprès de John Euvrard « Meilleur Ouvrier de France 2007 Option Sommellerie ».
 Il poursuit comme chef sommelier au Royal Barrière à Deauville à 20 ans, chez Lasserre à Paris et El Bulli de Ferran Adrià. Sur des périodes volontairement courtes, il effectue des stages avec Alain Ducasse au Plaza Athénée, au Louis 15 à Monaco et au Dorchester à Londres, également auprès de Jacques Lameloise à Chagny et à l'Auberge de l'Ill à Illhaeusern auprès de Serge Dubs (Meilleur sommelier du monde 1989).
 En janvier 2007, il rejoint Les Ambassadeurs, le restaurant de l'Hôtel de Crillon, en qualité d'assistant chef sommelier où il accède au titre de « Meilleur jeune sommelier de France » et de « Sommelier de l'année 2008 » décerné par le magazine Le Chef. De 2009 à 2012, il est co-auteur du Guide des Vins de France édité par Gault et Millau. 
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Antoine_P%C3%A9trus</t>
+          <t>Antoine_Pétrus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Collaboration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Antoine Pétrus est également associé entre 2006 et 2011 dans différentes sociétés à travers le monde ou il collabore à la création de cartes des vins et contribue à la formation des sommeliers de restaurant (Paris / New York / Singapour). 
 Jusqu'en 2011, il est partie prenante dans la création du site et de la boutique Meilleurs Vins Bio à Paris pour lesquels il est responsable de la partie référencement et du choix des domaines viticoles. Le Carré des Vins, site spécialisé dans la vente de grands vins sur internet fait appel à lui pour la sélection de ses producteurs et pour la rédaction de fiches de dégustations de 2008 à 2015. En collaboration avec Christophe Abbet, il vinifie puis élève la cuvée Alchimie dans le Valais en Suisse. Une autre collaboration l'associe avec le Château La Font du Loup à Châteauneuf-du-Pape, pour une cuvée en 2012, élaborée de concert avec la famille Bachas et Philippe Cambie.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Antoine_P%C3%A9trus</t>
+          <t>Antoine_Pétrus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2006 : « Meilleur jeune sommelier d’Île de France » (Trophée Ruinart)
 2007 : « Meilleur jeune sommelier de France » (Trophée Ruinart)
